--- a/part3_statistics/data/ConfidenceIntervals_PopulationVarianceKnown.xlsx
+++ b/part3_statistics/data/ConfidenceIntervals_PopulationVarianceKnown.xlsx
@@ -374,7 +374,7 @@
   <dimension ref="B1:N35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -383,7 +383,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="46.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="28.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="60.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="8.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="27.81"/>
@@ -430,17 +430,14 @@
         <v>113038</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="5" t="n">
         <v>101936</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="5" t="n">
-        <f aca="false">AVERAGE(B6:B35)</f>
-        <v>100200.366666667</v>
-      </c>
+      <c r="E9" s="5"/>
       <c r="H9" s="4" t="s">
         <v>5</v>
       </c>
@@ -467,34 +464,31 @@
       </c>
       <c r="I10" s="5" t="n">
         <f aca="false">E9-E11*E13</f>
-        <v>100200.366666667</v>
+        <v>0</v>
       </c>
       <c r="J10" s="5" t="n">
         <f aca="false">E9+E13*E11</f>
-        <v>100200.366666667</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="5" t="n">
         <v>113136</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="5" t="n">
-        <f aca="false">E10/SQRT(30)</f>
-        <v>2738.61278752583</v>
-      </c>
+      <c r="E11" s="5"/>
       <c r="H11" s="8" t="n">
         <v>0.99</v>
       </c>
       <c r="I11" s="9" t="n">
         <f aca="false">E9-E14*E11</f>
-        <v>100200.366666667</v>
+        <v>0</v>
       </c>
       <c r="J11" s="9" t="n">
         <f aca="false">E9+E14*E11</f>
-        <v>100200.366666667</v>
+        <v>0</v>
       </c>
       <c r="N11" s="6"/>
     </row>
